--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3709.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3709.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.278495642133688</v>
+        <v>1.432885646820068</v>
       </c>
       <c r="B1">
-        <v>2.423494697506364</v>
+        <v>2.965213060379028</v>
       </c>
       <c r="C1">
-        <v>6.784934153258005</v>
+        <v>4.723549842834473</v>
       </c>
       <c r="D1">
-        <v>2.418512563708951</v>
+        <v>1.942668199539185</v>
       </c>
       <c r="E1">
-        <v>1.095402749559348</v>
+        <v>1.228165626525879</v>
       </c>
     </row>
   </sheetData>
